--- a/export_dtr.xlsx
+++ b/export_dtr.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="DTR" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$G$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'DTR'!$A$1:$G$56</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>DEPARTMENT OF THE INTERIOR AND LOCAL GOVERNMENT</t>
   </si>
@@ -31,10 +33,10 @@
     <t>Civil Service Form No. 48</t>
   </si>
   <si>
-    <t>ODI,CHARLES ADRIAN TAMIS</t>
-  </si>
-  <si>
-    <t>For the Month of July 2020</t>
+    <t>CASTILLO, JAN ERIC CAMPOMANES</t>
+  </si>
+  <si>
+    <t>For the Month of May 2022</t>
   </si>
   <si>
     <t>Regular Days ______________</t>
@@ -70,184 +72,16 @@
     <t>Minutes</t>
   </si>
   <si>
-    <t>July 01, 2020</t>
-  </si>
-  <si>
-    <t>07:45 AM</t>
-  </si>
-  <si>
-    <t>12:10 PM</t>
-  </si>
-  <si>
-    <t>05:05 PM</t>
-  </si>
-  <si>
-    <t>July 02, 2020</t>
-  </si>
-  <si>
-    <t>09:00 AM</t>
-  </si>
-  <si>
-    <t>12:33 PM</t>
-  </si>
-  <si>
-    <t>07:07 PM</t>
-  </si>
-  <si>
-    <t>July 03, 2020</t>
-  </si>
-  <si>
-    <t>08:30 AM</t>
-  </si>
-  <si>
-    <t>12:05 PM</t>
-  </si>
-  <si>
-    <t>12:07 PM</t>
-  </si>
-  <si>
-    <t>05:40 PM</t>
-  </si>
-  <si>
-    <t>July 04, 2020</t>
-  </si>
-  <si>
-    <t>July 05, 2020</t>
-  </si>
-  <si>
-    <t>July 06, 2020</t>
-  </si>
-  <si>
-    <t>07:44 AM</t>
-  </si>
-  <si>
-    <t>12:00 PM</t>
-  </si>
-  <si>
-    <t>12:01 PM</t>
-  </si>
-  <si>
-    <t>05:50 PM</t>
-  </si>
-  <si>
-    <t>July 07, 2020</t>
-  </si>
-  <si>
-    <t>08:28 AM</t>
-  </si>
-  <si>
-    <t>12:14 PM</t>
-  </si>
-  <si>
-    <t>05:30 PM</t>
-  </si>
-  <si>
-    <t>July 08, 2020</t>
-  </si>
-  <si>
-    <t>08:09 AM</t>
-  </si>
-  <si>
-    <t>12:25 PM</t>
-  </si>
-  <si>
-    <t>12:26 PM</t>
-  </si>
-  <si>
-    <t>06:04 PM</t>
-  </si>
-  <si>
-    <t>July 09, 2020</t>
-  </si>
-  <si>
-    <t>08:08 AM</t>
-  </si>
-  <si>
-    <t>12:13 PM</t>
-  </si>
-  <si>
-    <t>05:15 PM</t>
-  </si>
-  <si>
-    <t>July 10, 2020</t>
-  </si>
-  <si>
-    <t>08:31 AM</t>
-  </si>
-  <si>
-    <t>12:50 PM</t>
-  </si>
-  <si>
-    <t>05:32 PM</t>
-  </si>
-  <si>
-    <t>July 11, 2020</t>
-  </si>
-  <si>
-    <t>July 12, 2020</t>
-  </si>
-  <si>
-    <t>July 13, 2020</t>
-  </si>
-  <si>
-    <t>07:51 AM</t>
-  </si>
-  <si>
-    <t>July 14, 2020</t>
-  </si>
-  <si>
-    <t>July 15, 2020</t>
-  </si>
-  <si>
-    <t>July 16, 2020</t>
-  </si>
-  <si>
-    <t>July 17, 2020</t>
-  </si>
-  <si>
-    <t>July 18, 2020</t>
-  </si>
-  <si>
-    <t>July 19, 2020</t>
-  </si>
-  <si>
-    <t>July 20, 2020</t>
-  </si>
-  <si>
-    <t>July 21, 2020</t>
-  </si>
-  <si>
-    <t>July 22, 2020</t>
-  </si>
-  <si>
-    <t>July 23, 2020</t>
-  </si>
-  <si>
-    <t>July 24, 2020</t>
-  </si>
-  <si>
-    <t>July 25, 2020</t>
-  </si>
-  <si>
-    <t>July 26, 2020</t>
-  </si>
-  <si>
-    <t>July 27, 2020</t>
-  </si>
-  <si>
-    <t>July 28, 2020</t>
-  </si>
-  <si>
-    <t>July 29, 2020</t>
-  </si>
-  <si>
-    <t>July 30, 2020</t>
-  </si>
-  <si>
-    <t>July 31, 2020</t>
-  </si>
-  <si>
-    <t>I certify on my honor that the above is a true and correct report of the hours of work performed, record of which was made daily at the time of arrival and departure from office</t>
+    <t>May 13, 2022</t>
+  </si>
+  <si>
+    <t>10:22 AM</t>
+  </si>
+  <si>
+    <t>10:35 AM</t>
+  </si>
+  <si>
+    <t>I certify on my honor that the above is a true and correct report of the hours of work performed, record of which was made daily at the time of arrival and departure from office.</t>
   </si>
   <si>
     <t>VERIFIED as to the prescribed office hours:</t>
@@ -261,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -282,6 +116,15 @@
     </font>
     <font>
       <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -290,7 +133,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,13 +146,63 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffff00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -329,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -348,53 +241,73 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,15 +608,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="true" style="0"/>
+    <col min="1" max="1" width="27.5703125" customWidth="true" style="0"/>
     <col min="2" max="2" width="13.5703125" customWidth="true" style="0"/>
     <col min="3" max="3" width="14.140625" customWidth="true" style="0"/>
     <col min="4" max="4" width="14" customWidth="true" style="0"/>
@@ -712,22 +625,22 @@
     <col min="7" max="7" width="10.42578125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" customHeight="1" ht="15">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7" customHeight="1" ht="15">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -743,7 +656,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" customHeight="1" ht="15">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
@@ -765,7 +678,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" customHeight="1" ht="15">
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
@@ -785,31 +698,31 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" customHeight="1" ht="15">
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" customHeight="1" ht="15">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
@@ -821,506 +734,231 @@
       <c r="G10" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" customHeight="1" ht="30">
+      <c r="A17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="17"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17"/>
+      <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="17"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="17"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="17"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="17"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="17"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="17"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="17"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="A32" s="17"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="17"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="17"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="17"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="17"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="17"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="17"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="17"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="17"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="17"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="17"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" customHeight="1" ht="30">
-      <c r="A47" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="A46" s="19"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="20"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="9"/>
+      <c r="A48" s="20"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="9"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="A49" s="20"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="9"/>
+      <c r="A50" s="20"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="20" t="s">
-        <v>77</v>
-      </c>
+      <c r="A51" s="20"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="9"/>
+      <c r="A52" s="20"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="9"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="A53" s="20"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="C54" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="A54" s="17"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="17"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection password="AE1C" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -1334,10 +972,10 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.70866141732283" right="0.70866141732283" top="0.74803149606299" bottom="0.74803149606299" header="0.31496062992126" footer="0.31496062992126"/>
@@ -1351,4 +989,32 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/export_dtr.xlsx
+++ b/export_dtr.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="DTR" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$G$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'DTR'!$A$1:$G$56</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>DEPARTMENT OF THE INTERIOR AND LOCAL GOVERNMENT</t>
   </si>
@@ -31,10 +33,10 @@
     <t>Civil Service Form No. 48</t>
   </si>
   <si>
-    <t>ODI,CHARLES ADRIAN TAMIS</t>
-  </si>
-  <si>
-    <t>For the Month of July 2020</t>
+    <t>SACLUTI, MARK KIM ALEJO</t>
+  </si>
+  <si>
+    <t>For the Month of March 2021</t>
   </si>
   <si>
     <t>Regular Days ______________</t>
@@ -70,187 +72,274 @@
     <t>Minutes</t>
   </si>
   <si>
-    <t>July 01, 2020</t>
-  </si>
-  <si>
-    <t>07:45 AM</t>
+    <t>March 01, 2021</t>
+  </si>
+  <si>
+    <t>07:53 AM</t>
+  </si>
+  <si>
+    <t>12:50 PM</t>
+  </si>
+  <si>
+    <t>05:12 PM</t>
+  </si>
+  <si>
+    <t>March 02, 2021</t>
+  </si>
+  <si>
+    <t>08:10 AM</t>
+  </si>
+  <si>
+    <t>12:45 PM</t>
+  </si>
+  <si>
+    <t>05:06 PM</t>
+  </si>
+  <si>
+    <t>March 03, 2021</t>
+  </si>
+  <si>
+    <t>07:42 AM</t>
+  </si>
+  <si>
+    <t>05:50 PM</t>
+  </si>
+  <si>
+    <t>March 04, 2021</t>
+  </si>
+  <si>
+    <t>07:56 AM</t>
+  </si>
+  <si>
+    <t>01:03 PM</t>
+  </si>
+  <si>
+    <t>06:07 PM</t>
+  </si>
+  <si>
+    <t>March 05, 2021</t>
+  </si>
+  <si>
+    <t>08:08 AM</t>
+  </si>
+  <si>
+    <t>12:30 PM</t>
+  </si>
+  <si>
+    <t>12:43 PM</t>
+  </si>
+  <si>
+    <t>06:11 PM</t>
+  </si>
+  <si>
+    <t>March 06, 2021</t>
+  </si>
+  <si>
+    <t>March 07, 2021</t>
+  </si>
+  <si>
+    <t>March 08, 2021</t>
+  </si>
+  <si>
+    <t>07:55 AM</t>
+  </si>
+  <si>
+    <t>12:54 PM</t>
+  </si>
+  <si>
+    <t>06:12 PM</t>
+  </si>
+  <si>
+    <t>March 09, 2021</t>
+  </si>
+  <si>
+    <t>07:40 AM</t>
+  </si>
+  <si>
+    <t>06:05 PM</t>
+  </si>
+  <si>
+    <t>March 10, 2021</t>
+  </si>
+  <si>
+    <t>07:48 AM</t>
+  </si>
+  <si>
+    <t>01:00 PM</t>
+  </si>
+  <si>
+    <t>06:15 PM</t>
+  </si>
+  <si>
+    <t>March 11, 2021</t>
+  </si>
+  <si>
+    <t>07:41 AM</t>
+  </si>
+  <si>
+    <t>12:52 PM</t>
+  </si>
+  <si>
+    <t>March 12, 2021</t>
+  </si>
+  <si>
+    <t>07:31 AM</t>
+  </si>
+  <si>
+    <t>12:32 PM</t>
+  </si>
+  <si>
+    <t>05:46 PM</t>
+  </si>
+  <si>
+    <t>March 13, 2021</t>
+  </si>
+  <si>
+    <t>March 14, 2021</t>
+  </si>
+  <si>
+    <t>March 15, 2021</t>
+  </si>
+  <si>
+    <t>07:52 AM</t>
+  </si>
+  <si>
+    <t>12:44 PM</t>
+  </si>
+  <si>
+    <t>05:10 PM</t>
+  </si>
+  <si>
+    <t>March 16, 2021</t>
+  </si>
+  <si>
+    <t>08:28 AM</t>
+  </si>
+  <si>
+    <t>12:11 PM</t>
+  </si>
+  <si>
+    <t>05:45 PM</t>
+  </si>
+  <si>
+    <t>March 17, 2021</t>
+  </si>
+  <si>
+    <t>07:35 AM</t>
+  </si>
+  <si>
+    <t>12:55 PM</t>
+  </si>
+  <si>
+    <t>05:40 PM</t>
+  </si>
+  <si>
+    <t>March 18, 2021</t>
+  </si>
+  <si>
+    <t>12:00 PM</t>
+  </si>
+  <si>
+    <t>March 19, 2021</t>
+  </si>
+  <si>
+    <t>05:44 PM</t>
+  </si>
+  <si>
+    <t>March 20, 2021</t>
+  </si>
+  <si>
+    <t>March 21, 2021</t>
+  </si>
+  <si>
+    <t>March 22, 2021</t>
+  </si>
+  <si>
+    <t>07:26 AM</t>
+  </si>
+  <si>
+    <t>05:32 PM</t>
+  </si>
+  <si>
+    <t>March 23, 2021</t>
+  </si>
+  <si>
+    <t>07:36 AM</t>
+  </si>
+  <si>
+    <t>06:06 PM</t>
+  </si>
+  <si>
+    <t>March 24, 2021</t>
+  </si>
+  <si>
+    <t>07:50 AM</t>
   </si>
   <si>
     <t>12:10 PM</t>
   </si>
   <si>
-    <t>05:05 PM</t>
-  </si>
-  <si>
-    <t>July 02, 2020</t>
-  </si>
-  <si>
-    <t>09:00 AM</t>
-  </si>
-  <si>
-    <t>12:33 PM</t>
-  </si>
-  <si>
-    <t>07:07 PM</t>
-  </si>
-  <si>
-    <t>July 03, 2020</t>
-  </si>
-  <si>
-    <t>08:30 AM</t>
+    <t>05:42 PM</t>
+  </si>
+  <si>
+    <t>March 25, 2021</t>
+  </si>
+  <si>
+    <t>06:35 AM</t>
+  </si>
+  <si>
+    <t>05:00 PM</t>
+  </si>
+  <si>
+    <t>March 26, 2021</t>
+  </si>
+  <si>
+    <t>06:10 PM</t>
+  </si>
+  <si>
+    <t>March 27, 2021</t>
+  </si>
+  <si>
+    <t>March 28, 2021</t>
+  </si>
+  <si>
+    <t>March 29, 2021</t>
+  </si>
+  <si>
+    <t>07:54 AM</t>
+  </si>
+  <si>
+    <t>12:20 PM</t>
+  </si>
+  <si>
+    <t>06:00 PM</t>
+  </si>
+  <si>
+    <t>March 30, 2021</t>
+  </si>
+  <si>
+    <t>07:15 AM</t>
   </si>
   <si>
     <t>12:05 PM</t>
   </si>
   <si>
-    <t>12:07 PM</t>
-  </si>
-  <si>
-    <t>05:40 PM</t>
-  </si>
-  <si>
-    <t>July 04, 2020</t>
-  </si>
-  <si>
-    <t>July 05, 2020</t>
-  </si>
-  <si>
-    <t>July 06, 2020</t>
-  </si>
-  <si>
-    <t>07:44 AM</t>
-  </si>
-  <si>
-    <t>12:00 PM</t>
-  </si>
-  <si>
-    <t>12:01 PM</t>
-  </si>
-  <si>
-    <t>05:50 PM</t>
-  </si>
-  <si>
-    <t>July 07, 2020</t>
-  </si>
-  <si>
-    <t>08:28 AM</t>
-  </si>
-  <si>
-    <t>12:14 PM</t>
-  </si>
-  <si>
-    <t>05:30 PM</t>
-  </si>
-  <si>
-    <t>July 08, 2020</t>
-  </si>
-  <si>
-    <t>08:09 AM</t>
-  </si>
-  <si>
-    <t>12:25 PM</t>
-  </si>
-  <si>
-    <t>12:26 PM</t>
-  </si>
-  <si>
-    <t>06:04 PM</t>
-  </si>
-  <si>
-    <t>July 09, 2020</t>
-  </si>
-  <si>
-    <t>08:08 AM</t>
-  </si>
-  <si>
-    <t>12:13 PM</t>
-  </si>
-  <si>
-    <t>05:15 PM</t>
-  </si>
-  <si>
-    <t>July 10, 2020</t>
-  </si>
-  <si>
-    <t>08:31 AM</t>
-  </si>
-  <si>
-    <t>12:50 PM</t>
-  </si>
-  <si>
-    <t>05:32 PM</t>
-  </si>
-  <si>
-    <t>July 11, 2020</t>
-  </si>
-  <si>
-    <t>July 12, 2020</t>
-  </si>
-  <si>
-    <t>July 13, 2020</t>
-  </si>
-  <si>
-    <t>07:51 AM</t>
-  </si>
-  <si>
-    <t>July 14, 2020</t>
-  </si>
-  <si>
-    <t>July 15, 2020</t>
-  </si>
-  <si>
-    <t>July 16, 2020</t>
-  </si>
-  <si>
-    <t>July 17, 2020</t>
-  </si>
-  <si>
-    <t>July 18, 2020</t>
-  </si>
-  <si>
-    <t>July 19, 2020</t>
-  </si>
-  <si>
-    <t>July 20, 2020</t>
-  </si>
-  <si>
-    <t>July 21, 2020</t>
-  </si>
-  <si>
-    <t>July 22, 2020</t>
-  </si>
-  <si>
-    <t>July 23, 2020</t>
-  </si>
-  <si>
-    <t>July 24, 2020</t>
-  </si>
-  <si>
-    <t>July 25, 2020</t>
-  </si>
-  <si>
-    <t>July 26, 2020</t>
-  </si>
-  <si>
-    <t>July 27, 2020</t>
-  </si>
-  <si>
-    <t>July 28, 2020</t>
-  </si>
-  <si>
-    <t>July 29, 2020</t>
-  </si>
-  <si>
-    <t>July 30, 2020</t>
-  </si>
-  <si>
-    <t>July 31, 2020</t>
-  </si>
-  <si>
-    <t>I certify on my honor that the above is a true and correct report of the hours of work performed, record of which was made daily at the time of arrival and departure from office</t>
+    <t>05:20 PM</t>
+  </si>
+  <si>
+    <t>March 31, 2021</t>
+  </si>
+  <si>
+    <t>07:34 AM</t>
+  </si>
+  <si>
+    <t>I certify on my honor that the above is a true and correct report of the hours of work performed, record of which was made daily at the time of arrival and departure from office.</t>
   </si>
   <si>
     <t>VERIFIED as to the prescribed office hours:</t>
+  </si>
+  <si>
+    <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
     <t>In Charge</t>
@@ -261,7 +350,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -277,6 +366,15 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -304,12 +402,56 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -329,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -348,53 +490,76 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +860,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C54" sqref="C54"/>
@@ -703,7 +868,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="true" style="0"/>
+    <col min="1" max="1" width="27.5703125" customWidth="true" style="0"/>
     <col min="2" max="2" width="13.5703125" customWidth="true" style="0"/>
     <col min="3" max="3" width="14.140625" customWidth="true" style="0"/>
     <col min="4" max="4" width="14" customWidth="true" style="0"/>
@@ -712,22 +877,22 @@
     <col min="7" max="7" width="10.42578125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" customHeight="1" ht="15">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7" customHeight="1" ht="15">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -743,7 +908,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" customHeight="1" ht="15">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
@@ -765,7 +930,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" customHeight="1" ht="15">
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
@@ -785,31 +950,31 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" customHeight="1" ht="15">
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" customHeight="1" ht="15">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
@@ -821,506 +986,641 @@
       <c r="G10" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="E37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="6" t="s">
+      <c r="C39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="6" t="s">
+      <c r="E44" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" customHeight="1" ht="30">
-      <c r="A47" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="A47" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="9"/>
+      <c r="A48" s="20"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="9"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="A49" s="20"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="9"/>
+      <c r="A50" s="20"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="20" t="s">
-        <v>77</v>
+      <c r="A51" s="27" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="9"/>
+      <c r="A52" s="20"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="9"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="A53" s="20"/>
+      <c r="C53" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:7">
+      <c r="A54" s="17"/>
       <c r="C54" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="17"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection password="AE1C" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -1351,4 +1651,32 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/export_dtr.xlsx
+++ b/export_dtr.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55A2392-0A86-43EF-9D19-B3F0DBD558A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection lockStructure="1"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="DTR" sheetId="1" r:id="rId1"/>
-    <sheet name="Worksheet" sheetId="2" r:id="rId2"/>
+    <sheet name="DTR" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DTR!$A$1:$G$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'DTR'!$A$1:$G$56</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>DEPARTMENT OF THE INTERIOR AND LOCAL GOVERNMENT</t>
   </si>
@@ -39,10 +33,10 @@
     <t>Civil Service Form No. 48</t>
   </si>
   <si>
-    <t>SACLUTI, MARK KIM ALEJO</t>
-  </si>
-  <si>
-    <t>For the Month of March 2021</t>
+    <t>ABIT, RHEA LEY GUTIERREZ</t>
+  </si>
+  <si>
+    <t>For the Month of May 2022</t>
   </si>
   <si>
     <t>Regular Days ______________</t>
@@ -78,13 +72,208 @@
     <t>Minutes</t>
   </si>
   <si>
+    <t>May 01, 2022</t>
+  </si>
+  <si>
+    <t>May 02, 2022</t>
+  </si>
+  <si>
+    <t>May 03, 2022</t>
+  </si>
+  <si>
+    <t>May 04, 2022</t>
+  </si>
+  <si>
+    <t>07:42 AM</t>
+  </si>
+  <si>
+    <t>12:11 PM</t>
+  </si>
+  <si>
+    <t>05:23 PM</t>
+  </si>
+  <si>
+    <t>May 05, 2022</t>
+  </si>
+  <si>
+    <t>12:53 PM</t>
+  </si>
+  <si>
+    <t>05:29 PM</t>
+  </si>
+  <si>
+    <t>May 06, 2022</t>
+  </si>
+  <si>
+    <t>07:35 AM</t>
+  </si>
+  <si>
+    <t>12:15 PM</t>
+  </si>
+  <si>
+    <t>10:36 PM</t>
+  </si>
+  <si>
+    <t>May 07, 2022</t>
+  </si>
+  <si>
+    <t>May 08, 2022</t>
+  </si>
+  <si>
+    <t>May 09, 2022</t>
+  </si>
+  <si>
+    <t>May 10, 2022</t>
+  </si>
+  <si>
+    <t>07:56 AM</t>
+  </si>
+  <si>
+    <t>12:52 PM</t>
+  </si>
+  <si>
+    <t>09:50 PM</t>
+  </si>
+  <si>
+    <t>May 11, 2022</t>
+  </si>
+  <si>
+    <t>07:57 AM</t>
+  </si>
+  <si>
+    <t>12:57 PM</t>
+  </si>
+  <si>
+    <t>10:00 PM</t>
+  </si>
+  <si>
+    <t>May 12, 2022</t>
+  </si>
+  <si>
+    <t>12:28 PM</t>
+  </si>
+  <si>
+    <t>12:27 PM</t>
+  </si>
+  <si>
+    <t>10:07 PM</t>
+  </si>
+  <si>
+    <t>May 13, 2022</t>
+  </si>
+  <si>
+    <t>May 14, 2022</t>
+  </si>
+  <si>
+    <t>May 15, 2022</t>
+  </si>
+  <si>
+    <t>May 16, 2022</t>
+  </si>
+  <si>
+    <t>May 17, 2022</t>
+  </si>
+  <si>
+    <t>07:55 AM</t>
+  </si>
+  <si>
+    <t>12:18 PM</t>
+  </si>
+  <si>
+    <t>09:21 PM</t>
+  </si>
+  <si>
+    <t>May 18, 2022</t>
+  </si>
+  <si>
+    <t>May 19, 2022</t>
+  </si>
+  <si>
+    <t>07:13 AM</t>
+  </si>
+  <si>
+    <t>09:10 PM</t>
+  </si>
+  <si>
+    <t>May 20, 2022</t>
+  </si>
+  <si>
+    <t>May 21, 2022</t>
+  </si>
+  <si>
+    <t>May 22, 2022</t>
+  </si>
+  <si>
+    <t>May 23, 2022</t>
+  </si>
+  <si>
+    <t>May 24, 2022</t>
+  </si>
+  <si>
+    <t>07:58 AM</t>
+  </si>
+  <si>
+    <t>09:57 PM</t>
+  </si>
+  <si>
+    <t>May 25, 2022</t>
+  </si>
+  <si>
+    <t>07:30 AM</t>
+  </si>
+  <si>
+    <t>12:12 PM</t>
+  </si>
+  <si>
+    <t>May 26, 2022</t>
+  </si>
+  <si>
+    <t>12:32 PM</t>
+  </si>
+  <si>
+    <t>10:37 PM</t>
+  </si>
+  <si>
+    <t>May 27, 2022</t>
+  </si>
+  <si>
+    <t>07:59 AM</t>
+  </si>
+  <si>
+    <t>09:51 PM</t>
+  </si>
+  <si>
+    <t>May 28, 2022</t>
+  </si>
+  <si>
+    <t>May 29, 2022</t>
+  </si>
+  <si>
+    <t>May 30, 2022</t>
+  </si>
+  <si>
+    <t>07:45 AM</t>
+  </si>
+  <si>
+    <t>12:10 PM</t>
+  </si>
+  <si>
+    <t>09:12 PM</t>
+  </si>
+  <si>
+    <t>May 31, 2022</t>
+  </si>
+  <si>
+    <t>07:47 AM</t>
+  </si>
+  <si>
+    <t>09:44 PM</t>
+  </si>
+  <si>
     <t>I certify on my honor that the above is a true and correct report of the hours of work performed, record of which was made daily at the time of arrival and departure from office.</t>
   </si>
   <si>
     <t>VERIFIED as to the prescribed office hours:</t>
-  </si>
-  <si>
-    <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
     <t>In Charge</t>
@@ -93,49 +282,81 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <i/>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffff00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -147,10 +368,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -159,160 +376,140 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="30">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -602,66 +799,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.5703125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="14.140625" customWidth="true" style="0"/>
+    <col min="4" max="4" width="14" customWidth="true" style="0"/>
+    <col min="5" max="5" width="14" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10.28515625" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10.42578125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" customHeight="1" ht="15">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" customHeight="1" ht="15">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" customHeight="1" ht="15">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" customHeight="1" ht="30">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -672,18 +873,18 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:7" customHeight="1" ht="15">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -692,33 +893,33 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:7" customHeight="1" ht="15">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" customHeight="1" ht="15">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -727,25 +928,25 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
@@ -765,8 +966,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -774,8 +977,10 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -783,8 +988,10 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -792,35 +999,65 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -828,8 +1065,10 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -837,8 +1076,10 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -846,35 +1087,67 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -882,8 +1155,10 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -891,8 +1166,10 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -900,8 +1177,10 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -909,17 +1188,29 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -927,17 +1218,25 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -945,8 +1244,10 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -954,8 +1255,10 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -963,8 +1266,10 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -972,44 +1277,80 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1017,8 +1358,10 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1026,26 +1369,42 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="18"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1053,8 +1412,8 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
+    <row r="46" spans="1:7">
+      <c r="A46" s="19"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1062,71 +1421,58 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="C53" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="C54" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
+    <row r="47" spans="1:7" customHeight="1" ht="30">
+      <c r="A47" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="20"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="20"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="20"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="20"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="20"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="17"/>
+      <c r="C54" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="17"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="16">
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
+  <sheetProtection password="AE1C" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:G4"/>
@@ -1134,21 +1480,54 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
   </mergeCells>
-  <pageMargins left="0.70866141732282995" right="0.70866141732282995" top="0.74803149606299002" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="256" scale="82" orientation="portrait" r:id="rId1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.70866141732283" right="0.70866141732283" top="0.74803149606299" bottom="0.74803149606299" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="256" orientation="portrait" scale="82" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>